--- a/Students Social Media Addiction.xlsx
+++ b/Students Social Media Addiction.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Data Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Data Analysis\Students Social Media Addiction Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Students Social Media Addiction" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <sheet name="Pivot Table" sheetId="10" r:id="rId3"/>
     <sheet name="Dashboard" sheetId="11" r:id="rId4"/>
     <sheet name="Insights" sheetId="12" r:id="rId5"/>
-    <sheet name="Problems" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Working Sheet'!$A$1:$M$706</definedName>
@@ -29,16 +28,16 @@
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
+        <x14:slicerCache r:id="rId7"/>
         <x14:slicerCache r:id="rId8"/>
         <x14:slicerCache r:id="rId9"/>
         <x14:slicerCache r:id="rId10"/>
         <x14:slicerCache r:id="rId11"/>
-        <x14:slicerCache r:id="rId12"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8511" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8516" uniqueCount="164">
   <si>
     <t>Student_ID</t>
   </si>
@@ -522,12 +521,6 @@
     <t>Addicted Score</t>
   </si>
   <si>
-    <t>Examine associations between daily usage hours and mental health score or sleep hours</t>
-  </si>
-  <si>
-    <t>Identify user segments (e.g. "high-usage high-stress" vs. "moderate- usage balanced") across countries</t>
-  </si>
-  <si>
     <t>Average of Sleep Hours Per Night</t>
   </si>
   <si>
@@ -734,7 +727,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -922,18 +915,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1048,17 +1035,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1104,7 +1080,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1112,22 +1088,20 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1173,27 +1147,15 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="519">
+  <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
@@ -1208,1506 +1170,6 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2716,27 +1178,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2765,7 +1206,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Students Social Media Addiction (Recovered).xlsx]Pivot Table!PivotTable1</c:name>
+    <c:name>[Students Social Media Addiction.xlsx]Pivot Table!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2947,41 +1388,53 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'Pivot Table'!$A$2:$A$6</c:f>
+              <c:f>'Pivot Table'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot Table'!$B$2:$B$6</c:f>
+              <c:f>'Pivot Table'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.8363636363636369</c:v>
+                  <c:v>5.6344827586206909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8</c:v>
+                  <c:v>6.0173410404624281</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1624999999999996</c:v>
+                  <c:v>6.4817351598173518</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2</c:v>
+                  <c:v>7.6314606741573048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1171428571428574</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2997,11 +1450,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="277728536"/>
-        <c:axId val="276309144"/>
+        <c:axId val="266841056"/>
+        <c:axId val="136507592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="277728536"/>
+        <c:axId val="266841056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3099,7 +1552,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276309144"/>
+        <c:crossAx val="136507592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3107,7 +1560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="276309144"/>
+        <c:axId val="136507592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3218,7 +1671,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277728536"/>
+        <c:crossAx val="266841056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3323,7 +1776,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Students Social Media Addiction (Recovered).xlsx]Pivot Table!PivotTable2</c:name>
+    <c:name>[Students Social Media Addiction.xlsx]Pivot Table!PivotTable2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -3480,41 +1933,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Pivot Table'!$A$22:$A$26</c:f>
+              <c:f>'Pivot Table'!$A$22:$A$28</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot Table'!$B$22:$B$26</c:f>
+              <c:f>'Pivot Table'!$B$22:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.2818181818181822</c:v>
+                  <c:v>6.8689655172413788</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5</c:v>
+                  <c:v>6.0138728323699429</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8</c:v>
+                  <c:v>5.1785388127853889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8</c:v>
+                  <c:v>4.1983146067415724</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2876190476190477</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3530,11 +1995,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="277190184"/>
-        <c:axId val="276272672"/>
+        <c:axId val="228529824"/>
+        <c:axId val="267013688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="277190184"/>
+        <c:axId val="228529824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3623,7 +2088,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276272672"/>
+        <c:crossAx val="267013688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3631,7 +2096,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="276272672"/>
+        <c:axId val="267013688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3728,7 +2193,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277190184"/>
+        <c:crossAx val="228529824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3830,7 +2295,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Students Social Media Addiction (Recovered).xlsx]Pivot Table!PivotTable3</c:name>
+    <c:name>[Students Social Media Addiction.xlsx]Pivot Table!PivotTable3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -3983,41 +2448,53 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'Pivot Table'!$A$41:$A$45</c:f>
+              <c:f>'Pivot Table'!$A$41:$A$47</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot Table'!$B$41:$B$45</c:f>
+              <c:f>'Pivot Table'!$B$41:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.5454545454545459</c:v>
+                  <c:v>8.9655172413793096</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>7.0502283105022832</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>5.2528089887640448</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4034,11 +2511,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="277297712"/>
-        <c:axId val="277351968"/>
+        <c:axId val="266861720"/>
+        <c:axId val="266510328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="277297712"/>
+        <c:axId val="266861720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4141,7 +2618,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277351968"/>
+        <c:crossAx val="266510328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4149,7 +2626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="277351968"/>
+        <c:axId val="266510328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4260,7 +2737,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277297712"/>
+        <c:crossAx val="266861720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4365,7 +2842,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Students Social Media Addiction (Recovered).xlsx]Pivot Table!PivotTable4</c:name>
+    <c:name>[Students Social Media Addiction.xlsx]Pivot Table!PivotTable4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -4528,47 +3005,89 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Pivot Table'!$A$57:$A$62</c:f>
+              <c:f>'Pivot Table'!$A$57:$A$69</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>WhatsApp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Snapchat</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>TikTok</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>Instagram</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>YouTube</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WeChat</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>KakaoTalk</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Facebook</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Twitter</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Facebook</c:v>
+                <c:pt idx="9">
+                  <c:v>VKontakte</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>LinkedIn</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>LINE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot Table'!$B$57:$B$62</c:f>
+              <c:f>'Pivot Table'!$B$57:$B$69</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>5.1625000000000005</c:v>
+                  <c:v>6.4759259259259272</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3</c:v>
+                  <c:v>5.0923076923076938</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9499999999999993</c:v>
+                  <c:v>5.3461038961038971</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.75</c:v>
+                  <c:v>4.8722891566265085</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8</c:v>
+                  <c:v>4.0799999999999992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7250000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5073170731707313</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.87</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4476190476190474</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4600,47 +3119,89 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Pivot Table'!$A$57:$A$62</c:f>
+              <c:f>'Pivot Table'!$A$57:$A$69</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>WhatsApp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Snapchat</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>TikTok</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>Instagram</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>YouTube</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WeChat</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>KakaoTalk</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Facebook</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Twitter</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Facebook</c:v>
+                <c:pt idx="9">
+                  <c:v>VKontakte</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>LinkedIn</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>LINE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot Table'!$C$57:$C$62</c:f>
+              <c:f>'Pivot Table'!$C$57:$C$69</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>7.25</c:v>
+                  <c:v>7.4629629629629628</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>7.4615384615384617</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>7.4285714285714288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5542168674698793</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
+                <c:pt idx="10">
+                  <c:v>3.8095238095238093</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4655,11 +3216,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="199"/>
-        <c:axId val="233852896"/>
-        <c:axId val="233853288"/>
+        <c:axId val="267008952"/>
+        <c:axId val="268340280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="233852896"/>
+        <c:axId val="267008952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4758,7 +3319,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233853288"/>
+        <c:crossAx val="268340280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4766,7 +3327,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233853288"/>
+        <c:axId val="268340280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4887,7 +3448,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233852896"/>
+        <c:crossAx val="267008952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4993,7 +3554,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Students Social Media Addiction (Recovered).xlsx]Pivot Table!PivotTable1</c:name>
+    <c:name>[Students Social Media Addiction.xlsx]Pivot Table!PivotTable1</c:name>
     <c:fmtId val="15"/>
   </c:pivotSource>
   <c:chart>
@@ -5204,6 +3765,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5B9BD5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -5253,41 +3855,53 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'Pivot Table'!$A$2:$A$6</c:f>
+              <c:f>'Pivot Table'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot Table'!$B$2:$B$6</c:f>
+              <c:f>'Pivot Table'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.8363636363636369</c:v>
+                  <c:v>5.6344827586206909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8</c:v>
+                  <c:v>6.0173410404624281</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1624999999999996</c:v>
+                  <c:v>6.4817351598173518</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2</c:v>
+                  <c:v>7.6314606741573048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1171428571428574</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5303,11 +3917,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="278134312"/>
-        <c:axId val="278137448"/>
+        <c:axId val="266695912"/>
+        <c:axId val="266694736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="278134312"/>
+        <c:axId val="266695912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5406,7 +4020,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278137448"/>
+        <c:crossAx val="266694736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5414,7 +4028,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="278137448"/>
+        <c:axId val="266694736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5526,7 +4140,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278134312"/>
+        <c:crossAx val="266695912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5632,7 +4246,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Students Social Media Addiction (Recovered).xlsx]Pivot Table!PivotTable2</c:name>
+    <c:name>[Students Social Media Addiction.xlsx]Pivot Table!PivotTable2</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -5939,41 +4553,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Pivot Table'!$A$22:$A$26</c:f>
+              <c:f>'Pivot Table'!$A$22:$A$28</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot Table'!$B$22:$B$26</c:f>
+              <c:f>'Pivot Table'!$B$22:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.2818181818181822</c:v>
+                  <c:v>6.8689655172413788</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5</c:v>
+                  <c:v>6.0138728323699429</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8</c:v>
+                  <c:v>5.1785388127853889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8</c:v>
+                  <c:v>4.1983146067415724</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2876190476190477</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5989,11 +4615,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="278140192"/>
-        <c:axId val="278135880"/>
+        <c:axId val="266692776"/>
+        <c:axId val="266695128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="278140192"/>
+        <c:axId val="266692776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6083,7 +4709,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278135880"/>
+        <c:crossAx val="266695128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6091,7 +4717,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="278135880"/>
+        <c:axId val="266695128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6189,7 +4815,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278140192"/>
+        <c:crossAx val="266692776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6292,7 +4918,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Students Social Media Addiction (Recovered).xlsx]Pivot Table!PivotTable3</c:name>
+    <c:name>[Students Social Media Addiction.xlsx]Pivot Table!PivotTable3</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -6547,41 +5173,53 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'Pivot Table'!$A$41:$A$45</c:f>
+              <c:f>'Pivot Table'!$A$41:$A$47</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot Table'!$B$41:$B$45</c:f>
+              <c:f>'Pivot Table'!$B$41:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.5454545454545459</c:v>
+                  <c:v>8.9655172413793096</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>7.0502283105022832</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>5.2528089887640448</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6598,11 +5236,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="278139800"/>
-        <c:axId val="278140584"/>
+        <c:axId val="266695520"/>
+        <c:axId val="266693168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="278139800"/>
+        <c:axId val="266695520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6706,7 +5344,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278140584"/>
+        <c:crossAx val="266693168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6714,7 +5352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="278140584"/>
+        <c:axId val="266693168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6826,7 +5464,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278139800"/>
+        <c:crossAx val="266695520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6932,7 +5570,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Students Social Media Addiction (Recovered).xlsx]Pivot Table!PivotTable4</c:name>
+    <c:name>[Students Social Media Addiction.xlsx]Pivot Table!PivotTable4</c:name>
     <c:fmtId val="15"/>
   </c:pivotSource>
   <c:chart>
@@ -7257,47 +5895,89 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Pivot Table'!$A$57:$A$62</c:f>
+              <c:f>'Pivot Table'!$A$57:$A$69</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>WhatsApp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Snapchat</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>TikTok</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>Instagram</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>YouTube</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WeChat</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>KakaoTalk</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Facebook</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Twitter</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Facebook</c:v>
+                <c:pt idx="9">
+                  <c:v>VKontakte</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>LinkedIn</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>LINE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot Table'!$B$57:$B$62</c:f>
+              <c:f>'Pivot Table'!$B$57:$B$69</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>5.1625000000000005</c:v>
+                  <c:v>6.4759259259259272</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3</c:v>
+                  <c:v>5.0923076923076938</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9499999999999993</c:v>
+                  <c:v>5.3461038961038971</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.75</c:v>
+                  <c:v>4.8722891566265085</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8</c:v>
+                  <c:v>4.0799999999999992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7250000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5073170731707313</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.87</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4476190476190474</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7329,47 +6009,89 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Pivot Table'!$A$57:$A$62</c:f>
+              <c:f>'Pivot Table'!$A$57:$A$69</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>WhatsApp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Snapchat</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>TikTok</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>Instagram</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>YouTube</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WeChat</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>KakaoTalk</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Facebook</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Twitter</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Facebook</c:v>
+                <c:pt idx="9">
+                  <c:v>VKontakte</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>LinkedIn</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>LINE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot Table'!$C$57:$C$62</c:f>
+              <c:f>'Pivot Table'!$C$57:$C$69</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>7.25</c:v>
+                  <c:v>7.4629629629629628</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>7.4615384615384617</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>7.4285714285714288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5542168674698793</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
+                <c:pt idx="10">
+                  <c:v>3.8095238095238093</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7384,11 +6106,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="199"/>
-        <c:axId val="278135488"/>
-        <c:axId val="278141368"/>
+        <c:axId val="266697088"/>
+        <c:axId val="266694344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="278135488"/>
+        <c:axId val="266697088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7487,7 +6209,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278141368"/>
+        <c:crossAx val="266694344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7495,7 +6217,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="278141368"/>
+        <c:axId val="266694344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7616,7 +6338,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278135488"/>
+        <c:crossAx val="266697088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12673,13 +11395,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>603600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12688,8 +11410,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="3190875"/>
-          <a:ext cx="3042000" cy="1314450"/>
+          <a:off x="838200" y="3000374"/>
+          <a:ext cx="3042000" cy="1514476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12737,14 +11459,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>3525</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12753,7 +11475,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="847725" y="4505324"/>
+          <a:off x="847725" y="4448174"/>
           <a:ext cx="3042000" cy="1171575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12790,7 +11512,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> the students were the less mentally healthy they were with the data showing that students with and addiction score of 9 had the lowest mental health score of 4. While students with an addiction score of 2 had the highest mental health score of 9.</a:t>
+            <a:t> the students were the less mentally healthy they were with the data showing that students with an addiction score of 9 had the lowest mental health score of 4. While students with an addiction score of 2 had the highest mental health score of 9.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -12803,13 +11525,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12818,7 +11540,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="5486399"/>
+          <a:off x="838200" y="5543549"/>
           <a:ext cx="3048000" cy="1162051"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12856,6 +11578,71 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t> and Snapchat are the most addictive social media platforms with an average addiction score of 7.5, followed by tiktok with an average addiction score of 7.4. This can vary depending on the counntry as some social media platforms are not widely used in every country.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="6705600"/>
+          <a:ext cx="2924175" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Students who</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> used their phones for more than 4 hours daily found that it affected their studies.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -23659,8 +22446,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A40:B45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A21:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
@@ -23685,351 +22472,116 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="111">
-        <item h="1" x="104"/>
-        <item h="1" x="91"/>
-        <item h="1" x="86"/>
-        <item h="1" x="44"/>
-        <item h="1" x="79"/>
-        <item h="1" x="5"/>
-        <item h="1" x="22"/>
-        <item h="1" x="81"/>
-        <item h="1" x="57"/>
-        <item h="1" x="97"/>
-        <item h="1" x="0"/>
-        <item h="1" x="74"/>
-        <item h="1" x="20"/>
-        <item h="1" x="107"/>
-        <item h="1" x="52"/>
-        <item h="1" x="94"/>
-        <item h="1" x="7"/>
-        <item h="1" x="68"/>
-        <item h="1" x="4"/>
-        <item h="1" x="45"/>
-        <item h="1" x="15"/>
-        <item h="1" x="46"/>
-        <item h="1" x="53"/>
-        <item h="1" x="65"/>
-        <item h="1" x="82"/>
-        <item h="1" x="63"/>
-        <item h="1" x="18"/>
-        <item h="1" x="49"/>
-        <item h="1" x="38"/>
-        <item h="1" x="69"/>
-        <item h="1" x="59"/>
-        <item h="1" x="10"/>
-        <item h="1" x="80"/>
-        <item h="1" x="6"/>
-        <item h="1" x="43"/>
-        <item h="1" x="24"/>
-        <item h="1" x="34"/>
-        <item h="1" x="62"/>
-        <item h="1" x="58"/>
-        <item h="1" x="1"/>
-        <item h="1" x="32"/>
-        <item h="1" x="101"/>
-        <item h="1" x="25"/>
-        <item h="1" x="36"/>
+        <item x="104"/>
+        <item x="91"/>
+        <item x="86"/>
+        <item x="44"/>
+        <item x="79"/>
+        <item x="5"/>
+        <item x="22"/>
+        <item x="81"/>
+        <item x="57"/>
+        <item x="97"/>
+        <item x="0"/>
+        <item x="74"/>
+        <item x="20"/>
+        <item x="107"/>
+        <item x="52"/>
+        <item x="94"/>
+        <item x="7"/>
+        <item x="68"/>
+        <item x="4"/>
+        <item x="45"/>
+        <item x="15"/>
+        <item x="46"/>
+        <item x="53"/>
+        <item x="65"/>
+        <item x="82"/>
+        <item x="63"/>
+        <item x="18"/>
+        <item x="49"/>
+        <item x="38"/>
+        <item x="69"/>
+        <item x="59"/>
+        <item x="10"/>
+        <item x="80"/>
+        <item x="6"/>
+        <item x="43"/>
+        <item x="24"/>
+        <item x="34"/>
+        <item x="62"/>
+        <item x="58"/>
+        <item x="1"/>
+        <item x="32"/>
+        <item x="101"/>
+        <item x="25"/>
+        <item x="36"/>
         <item x="12"/>
-        <item h="1" x="55"/>
-        <item h="1" x="8"/>
-        <item h="1" x="99"/>
-        <item h="1" x="75"/>
-        <item h="1" x="42"/>
-        <item h="1" x="93"/>
-        <item h="1" x="96"/>
-        <item h="1" x="77"/>
-        <item h="1" x="70"/>
-        <item h="1" x="100"/>
-        <item h="1" x="89"/>
-        <item h="1" x="71"/>
-        <item h="1" x="84"/>
-        <item h="1" x="28"/>
-        <item h="1" x="109"/>
-        <item h="1" x="83"/>
-        <item h="1" x="13"/>
-        <item h="1" x="73"/>
-        <item h="1" x="85"/>
-        <item h="1" x="90"/>
-        <item h="1" x="39"/>
-        <item h="1" x="106"/>
-        <item h="1" x="19"/>
-        <item h="1" x="26"/>
-        <item h="1" x="41"/>
-        <item h="1" x="92"/>
-        <item h="1" x="17"/>
-        <item h="1" x="98"/>
-        <item h="1" x="105"/>
-        <item h="1" x="54"/>
-        <item h="1" x="51"/>
-        <item h="1" x="47"/>
-        <item h="1" x="31"/>
-        <item h="1" x="60"/>
-        <item h="1" x="23"/>
-        <item h="1" x="95"/>
-        <item h="1" x="61"/>
-        <item h="1" x="14"/>
-        <item h="1" x="87"/>
-        <item h="1" x="66"/>
-        <item h="1" x="27"/>
-        <item h="1" x="64"/>
-        <item h="1" x="67"/>
-        <item h="1" x="40"/>
-        <item h="1" x="9"/>
-        <item h="1" x="11"/>
-        <item h="1" x="108"/>
-        <item h="1" x="16"/>
-        <item h="1" x="21"/>
-        <item h="1" x="103"/>
-        <item h="1" x="33"/>
-        <item h="1" x="78"/>
-        <item h="1" x="29"/>
-        <item h="1" x="56"/>
-        <item h="1" x="35"/>
-        <item h="1" x="37"/>
-        <item h="1" x="3"/>
-        <item h="1" x="72"/>
-        <item h="1" x="50"/>
-        <item h="1" x="2"/>
-        <item h="1" x="76"/>
-        <item h="1" x="88"/>
-        <item h="1" x="48"/>
-        <item h="1" x="30"/>
-        <item h="1" x="102"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="4"/>
+        <item x="55"/>
+        <item x="8"/>
+        <item x="99"/>
+        <item x="75"/>
+        <item x="42"/>
+        <item x="93"/>
+        <item x="96"/>
+        <item x="77"/>
+        <item x="70"/>
+        <item x="100"/>
+        <item x="89"/>
+        <item x="71"/>
+        <item x="84"/>
+        <item x="28"/>
+        <item x="109"/>
+        <item x="83"/>
+        <item x="13"/>
+        <item x="73"/>
+        <item x="85"/>
+        <item x="90"/>
+        <item x="39"/>
+        <item x="106"/>
+        <item x="19"/>
+        <item x="26"/>
+        <item x="41"/>
+        <item x="92"/>
+        <item x="17"/>
+        <item x="98"/>
+        <item x="105"/>
+        <item x="54"/>
+        <item x="51"/>
+        <item x="47"/>
+        <item x="31"/>
+        <item x="60"/>
+        <item x="23"/>
+        <item x="95"/>
+        <item x="61"/>
+        <item x="14"/>
+        <item x="87"/>
+        <item x="66"/>
+        <item x="27"/>
+        <item x="64"/>
+        <item x="67"/>
+        <item x="40"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="108"/>
+        <item x="16"/>
+        <item x="21"/>
+        <item x="103"/>
+        <item x="33"/>
+        <item x="78"/>
+        <item x="29"/>
+        <item x="56"/>
+        <item x="35"/>
+        <item x="37"/>
+        <item x="3"/>
+        <item x="72"/>
+        <item x="50"/>
         <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Addicted Score" fld="12" subtotal="average" baseField="9" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="513">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="512">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A21:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="111">
-        <item h="1" x="104"/>
-        <item h="1" x="91"/>
-        <item h="1" x="86"/>
-        <item h="1" x="44"/>
-        <item h="1" x="79"/>
-        <item h="1" x="5"/>
-        <item h="1" x="22"/>
-        <item h="1" x="81"/>
-        <item h="1" x="57"/>
-        <item h="1" x="97"/>
-        <item h="1" x="0"/>
-        <item h="1" x="74"/>
-        <item h="1" x="20"/>
-        <item h="1" x="107"/>
-        <item h="1" x="52"/>
-        <item h="1" x="94"/>
-        <item h="1" x="7"/>
-        <item h="1" x="68"/>
-        <item h="1" x="4"/>
-        <item h="1" x="45"/>
-        <item h="1" x="15"/>
-        <item h="1" x="46"/>
-        <item h="1" x="53"/>
-        <item h="1" x="65"/>
-        <item h="1" x="82"/>
-        <item h="1" x="63"/>
-        <item h="1" x="18"/>
-        <item h="1" x="49"/>
-        <item h="1" x="38"/>
-        <item h="1" x="69"/>
-        <item h="1" x="59"/>
-        <item h="1" x="10"/>
-        <item h="1" x="80"/>
-        <item h="1" x="6"/>
-        <item h="1" x="43"/>
-        <item h="1" x="24"/>
-        <item h="1" x="34"/>
-        <item h="1" x="62"/>
-        <item h="1" x="58"/>
-        <item h="1" x="1"/>
-        <item h="1" x="32"/>
-        <item h="1" x="101"/>
-        <item h="1" x="25"/>
-        <item h="1" x="36"/>
-        <item x="12"/>
-        <item h="1" x="55"/>
-        <item h="1" x="8"/>
-        <item h="1" x="99"/>
-        <item h="1" x="75"/>
-        <item h="1" x="42"/>
-        <item h="1" x="93"/>
-        <item h="1" x="96"/>
-        <item h="1" x="77"/>
-        <item h="1" x="70"/>
-        <item h="1" x="100"/>
-        <item h="1" x="89"/>
-        <item h="1" x="71"/>
-        <item h="1" x="84"/>
-        <item h="1" x="28"/>
-        <item h="1" x="109"/>
-        <item h="1" x="83"/>
-        <item h="1" x="13"/>
-        <item h="1" x="73"/>
-        <item h="1" x="85"/>
-        <item h="1" x="90"/>
-        <item h="1" x="39"/>
-        <item h="1" x="106"/>
-        <item h="1" x="19"/>
-        <item h="1" x="26"/>
-        <item h="1" x="41"/>
-        <item h="1" x="92"/>
-        <item h="1" x="17"/>
-        <item h="1" x="98"/>
-        <item h="1" x="105"/>
-        <item h="1" x="54"/>
-        <item h="1" x="51"/>
-        <item h="1" x="47"/>
-        <item h="1" x="31"/>
-        <item h="1" x="60"/>
-        <item h="1" x="23"/>
-        <item h="1" x="95"/>
-        <item h="1" x="61"/>
-        <item h="1" x="14"/>
-        <item h="1" x="87"/>
-        <item h="1" x="66"/>
-        <item h="1" x="27"/>
-        <item h="1" x="64"/>
-        <item h="1" x="67"/>
-        <item h="1" x="40"/>
-        <item h="1" x="9"/>
-        <item h="1" x="11"/>
-        <item h="1" x="108"/>
-        <item h="1" x="16"/>
-        <item h="1" x="21"/>
-        <item h="1" x="103"/>
-        <item h="1" x="33"/>
-        <item h="1" x="78"/>
-        <item h="1" x="29"/>
-        <item h="1" x="56"/>
-        <item h="1" x="35"/>
-        <item h="1" x="37"/>
-        <item h="1" x="3"/>
-        <item h="1" x="72"/>
-        <item h="1" x="50"/>
-        <item h="1" x="2"/>
-        <item h="1" x="76"/>
-        <item h="1" x="88"/>
-        <item h="1" x="48"/>
-        <item h="1" x="30"/>
-        <item h="1" x="102"/>
+        <item x="76"/>
+        <item x="88"/>
+        <item x="48"/>
+        <item x="30"/>
+        <item x="102"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -24068,7 +22620,10 @@
   <rowFields count="1">
     <field x="9"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
     <i>
       <x v="1"/>
     </i>
@@ -24081,6 +22636,9 @@
     <i>
       <x v="4"/>
     </i>
+    <i>
+      <x v="5"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -24092,10 +22650,10 @@
     <dataField name="Average of Avg Daily Usage Hours" fld="5" subtotal="average" baseField="9" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="515">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="514">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -24128,9 +22686,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
-  <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+  <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
@@ -24155,116 +22713,116 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="111">
-        <item h="1" x="104"/>
-        <item h="1" x="91"/>
-        <item h="1" x="86"/>
-        <item h="1" x="44"/>
-        <item h="1" x="79"/>
-        <item h="1" x="5"/>
-        <item h="1" x="22"/>
-        <item h="1" x="81"/>
-        <item h="1" x="57"/>
-        <item h="1" x="97"/>
-        <item h="1" x="0"/>
-        <item h="1" x="74"/>
-        <item h="1" x="20"/>
-        <item h="1" x="107"/>
-        <item h="1" x="52"/>
-        <item h="1" x="94"/>
-        <item h="1" x="7"/>
-        <item h="1" x="68"/>
-        <item h="1" x="4"/>
-        <item h="1" x="45"/>
-        <item h="1" x="15"/>
-        <item h="1" x="46"/>
-        <item h="1" x="53"/>
-        <item h="1" x="65"/>
-        <item h="1" x="82"/>
-        <item h="1" x="63"/>
-        <item h="1" x="18"/>
-        <item h="1" x="49"/>
-        <item h="1" x="38"/>
-        <item h="1" x="69"/>
-        <item h="1" x="59"/>
-        <item h="1" x="10"/>
-        <item h="1" x="80"/>
-        <item h="1" x="6"/>
-        <item h="1" x="43"/>
-        <item h="1" x="24"/>
-        <item h="1" x="34"/>
-        <item h="1" x="62"/>
-        <item h="1" x="58"/>
-        <item h="1" x="1"/>
-        <item h="1" x="32"/>
-        <item h="1" x="101"/>
-        <item h="1" x="25"/>
-        <item h="1" x="36"/>
+        <item x="104"/>
+        <item x="91"/>
+        <item x="86"/>
+        <item x="44"/>
+        <item x="79"/>
+        <item x="5"/>
+        <item x="22"/>
+        <item x="81"/>
+        <item x="57"/>
+        <item x="97"/>
+        <item x="0"/>
+        <item x="74"/>
+        <item x="20"/>
+        <item x="107"/>
+        <item x="52"/>
+        <item x="94"/>
+        <item x="7"/>
+        <item x="68"/>
+        <item x="4"/>
+        <item x="45"/>
+        <item x="15"/>
+        <item x="46"/>
+        <item x="53"/>
+        <item x="65"/>
+        <item x="82"/>
+        <item x="63"/>
+        <item x="18"/>
+        <item x="49"/>
+        <item x="38"/>
+        <item x="69"/>
+        <item x="59"/>
+        <item x="10"/>
+        <item x="80"/>
+        <item x="6"/>
+        <item x="43"/>
+        <item x="24"/>
+        <item x="34"/>
+        <item x="62"/>
+        <item x="58"/>
+        <item x="1"/>
+        <item x="32"/>
+        <item x="101"/>
+        <item x="25"/>
+        <item x="36"/>
         <item x="12"/>
-        <item h="1" x="55"/>
-        <item h="1" x="8"/>
-        <item h="1" x="99"/>
-        <item h="1" x="75"/>
-        <item h="1" x="42"/>
-        <item h="1" x="93"/>
-        <item h="1" x="96"/>
-        <item h="1" x="77"/>
-        <item h="1" x="70"/>
-        <item h="1" x="100"/>
-        <item h="1" x="89"/>
-        <item h="1" x="71"/>
-        <item h="1" x="84"/>
-        <item h="1" x="28"/>
-        <item h="1" x="109"/>
-        <item h="1" x="83"/>
-        <item h="1" x="13"/>
-        <item h="1" x="73"/>
-        <item h="1" x="85"/>
-        <item h="1" x="90"/>
-        <item h="1" x="39"/>
-        <item h="1" x="106"/>
-        <item h="1" x="19"/>
-        <item h="1" x="26"/>
-        <item h="1" x="41"/>
-        <item h="1" x="92"/>
-        <item h="1" x="17"/>
-        <item h="1" x="98"/>
-        <item h="1" x="105"/>
-        <item h="1" x="54"/>
-        <item h="1" x="51"/>
-        <item h="1" x="47"/>
-        <item h="1" x="31"/>
-        <item h="1" x="60"/>
-        <item h="1" x="23"/>
-        <item h="1" x="95"/>
-        <item h="1" x="61"/>
-        <item h="1" x="14"/>
-        <item h="1" x="87"/>
-        <item h="1" x="66"/>
-        <item h="1" x="27"/>
-        <item h="1" x="64"/>
-        <item h="1" x="67"/>
-        <item h="1" x="40"/>
-        <item h="1" x="9"/>
-        <item h="1" x="11"/>
-        <item h="1" x="108"/>
-        <item h="1" x="16"/>
-        <item h="1" x="21"/>
-        <item h="1" x="103"/>
-        <item h="1" x="33"/>
-        <item h="1" x="78"/>
-        <item h="1" x="29"/>
-        <item h="1" x="56"/>
-        <item h="1" x="35"/>
-        <item h="1" x="37"/>
-        <item h="1" x="3"/>
-        <item h="1" x="72"/>
-        <item h="1" x="50"/>
-        <item h="1" x="2"/>
-        <item h="1" x="76"/>
-        <item h="1" x="88"/>
-        <item h="1" x="48"/>
-        <item h="1" x="30"/>
-        <item h="1" x="102"/>
+        <item x="55"/>
+        <item x="8"/>
+        <item x="99"/>
+        <item x="75"/>
+        <item x="42"/>
+        <item x="93"/>
+        <item x="96"/>
+        <item x="77"/>
+        <item x="70"/>
+        <item x="100"/>
+        <item x="89"/>
+        <item x="71"/>
+        <item x="84"/>
+        <item x="28"/>
+        <item x="109"/>
+        <item x="83"/>
+        <item x="13"/>
+        <item x="73"/>
+        <item x="85"/>
+        <item x="90"/>
+        <item x="39"/>
+        <item x="106"/>
+        <item x="19"/>
+        <item x="26"/>
+        <item x="41"/>
+        <item x="92"/>
+        <item x="17"/>
+        <item x="98"/>
+        <item x="105"/>
+        <item x="54"/>
+        <item x="51"/>
+        <item x="47"/>
+        <item x="31"/>
+        <item x="60"/>
+        <item x="23"/>
+        <item x="95"/>
+        <item x="61"/>
+        <item x="14"/>
+        <item x="87"/>
+        <item x="66"/>
+        <item x="27"/>
+        <item x="64"/>
+        <item x="67"/>
+        <item x="40"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="108"/>
+        <item x="16"/>
+        <item x="21"/>
+        <item x="103"/>
+        <item x="33"/>
+        <item x="78"/>
+        <item x="29"/>
+        <item x="56"/>
+        <item x="35"/>
+        <item x="37"/>
+        <item x="3"/>
+        <item x="72"/>
+        <item x="50"/>
+        <item x="2"/>
+        <item x="76"/>
+        <item x="88"/>
+        <item x="48"/>
+        <item x="30"/>
+        <item x="102"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -24303,7 +22861,10 @@
   <rowFields count="1">
     <field x="9"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
     <i>
       <x v="1"/>
     </i>
@@ -24316,6 +22877,9 @@
     <i>
       <x v="4"/>
     </i>
+    <i>
+      <x v="5"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -24327,7 +22891,7 @@
     <dataField name="Average of Sleep Hours Per Night" fld="8" subtotal="average" baseField="9" baseItem="3"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="516">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -24360,9 +22924,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
-  <location ref="A56:C62" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A56:C69" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
@@ -24387,116 +22951,116 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="111">
-        <item h="1" x="104"/>
-        <item h="1" x="91"/>
-        <item h="1" x="86"/>
-        <item h="1" x="44"/>
-        <item h="1" x="79"/>
-        <item h="1" x="5"/>
-        <item h="1" x="22"/>
-        <item h="1" x="81"/>
-        <item h="1" x="57"/>
-        <item h="1" x="97"/>
-        <item h="1" x="0"/>
-        <item h="1" x="74"/>
-        <item h="1" x="20"/>
-        <item h="1" x="107"/>
-        <item h="1" x="52"/>
-        <item h="1" x="94"/>
-        <item h="1" x="7"/>
-        <item h="1" x="68"/>
-        <item h="1" x="4"/>
-        <item h="1" x="45"/>
-        <item h="1" x="15"/>
-        <item h="1" x="46"/>
-        <item h="1" x="53"/>
-        <item h="1" x="65"/>
-        <item h="1" x="82"/>
-        <item h="1" x="63"/>
-        <item h="1" x="18"/>
-        <item h="1" x="49"/>
-        <item h="1" x="38"/>
-        <item h="1" x="69"/>
-        <item h="1" x="59"/>
-        <item h="1" x="10"/>
-        <item h="1" x="80"/>
-        <item h="1" x="6"/>
-        <item h="1" x="43"/>
-        <item h="1" x="24"/>
-        <item h="1" x="34"/>
-        <item h="1" x="62"/>
-        <item h="1" x="58"/>
-        <item h="1" x="1"/>
-        <item h="1" x="32"/>
-        <item h="1" x="101"/>
-        <item h="1" x="25"/>
-        <item h="1" x="36"/>
+        <item x="104"/>
+        <item x="91"/>
+        <item x="86"/>
+        <item x="44"/>
+        <item x="79"/>
+        <item x="5"/>
+        <item x="22"/>
+        <item x="81"/>
+        <item x="57"/>
+        <item x="97"/>
+        <item x="0"/>
+        <item x="74"/>
+        <item x="20"/>
+        <item x="107"/>
+        <item x="52"/>
+        <item x="94"/>
+        <item x="7"/>
+        <item x="68"/>
+        <item x="4"/>
+        <item x="45"/>
+        <item x="15"/>
+        <item x="46"/>
+        <item x="53"/>
+        <item x="65"/>
+        <item x="82"/>
+        <item x="63"/>
+        <item x="18"/>
+        <item x="49"/>
+        <item x="38"/>
+        <item x="69"/>
+        <item x="59"/>
+        <item x="10"/>
+        <item x="80"/>
+        <item x="6"/>
+        <item x="43"/>
+        <item x="24"/>
+        <item x="34"/>
+        <item x="62"/>
+        <item x="58"/>
+        <item x="1"/>
+        <item x="32"/>
+        <item x="101"/>
+        <item x="25"/>
+        <item x="36"/>
         <item x="12"/>
-        <item h="1" x="55"/>
-        <item h="1" x="8"/>
-        <item h="1" x="99"/>
-        <item h="1" x="75"/>
-        <item h="1" x="42"/>
-        <item h="1" x="93"/>
-        <item h="1" x="96"/>
-        <item h="1" x="77"/>
-        <item h="1" x="70"/>
-        <item h="1" x="100"/>
-        <item h="1" x="89"/>
-        <item h="1" x="71"/>
-        <item h="1" x="84"/>
-        <item h="1" x="28"/>
-        <item h="1" x="109"/>
-        <item h="1" x="83"/>
-        <item h="1" x="13"/>
-        <item h="1" x="73"/>
-        <item h="1" x="85"/>
-        <item h="1" x="90"/>
-        <item h="1" x="39"/>
-        <item h="1" x="106"/>
-        <item h="1" x="19"/>
-        <item h="1" x="26"/>
-        <item h="1" x="41"/>
-        <item h="1" x="92"/>
-        <item h="1" x="17"/>
-        <item h="1" x="98"/>
-        <item h="1" x="105"/>
-        <item h="1" x="54"/>
-        <item h="1" x="51"/>
-        <item h="1" x="47"/>
-        <item h="1" x="31"/>
-        <item h="1" x="60"/>
-        <item h="1" x="23"/>
-        <item h="1" x="95"/>
-        <item h="1" x="61"/>
-        <item h="1" x="14"/>
-        <item h="1" x="87"/>
-        <item h="1" x="66"/>
-        <item h="1" x="27"/>
-        <item h="1" x="64"/>
-        <item h="1" x="67"/>
-        <item h="1" x="40"/>
-        <item h="1" x="9"/>
-        <item h="1" x="11"/>
-        <item h="1" x="108"/>
-        <item h="1" x="16"/>
-        <item h="1" x="21"/>
-        <item h="1" x="103"/>
-        <item h="1" x="33"/>
-        <item h="1" x="78"/>
-        <item h="1" x="29"/>
-        <item h="1" x="56"/>
-        <item h="1" x="35"/>
-        <item h="1" x="37"/>
-        <item h="1" x="3"/>
-        <item h="1" x="72"/>
-        <item h="1" x="50"/>
-        <item h="1" x="2"/>
-        <item h="1" x="76"/>
-        <item h="1" x="88"/>
-        <item h="1" x="48"/>
-        <item h="1" x="30"/>
-        <item h="1" x="102"/>
+        <item x="55"/>
+        <item x="8"/>
+        <item x="99"/>
+        <item x="75"/>
+        <item x="42"/>
+        <item x="93"/>
+        <item x="96"/>
+        <item x="77"/>
+        <item x="70"/>
+        <item x="100"/>
+        <item x="89"/>
+        <item x="71"/>
+        <item x="84"/>
+        <item x="28"/>
+        <item x="109"/>
+        <item x="83"/>
+        <item x="13"/>
+        <item x="73"/>
+        <item x="85"/>
+        <item x="90"/>
+        <item x="39"/>
+        <item x="106"/>
+        <item x="19"/>
+        <item x="26"/>
+        <item x="41"/>
+        <item x="92"/>
+        <item x="17"/>
+        <item x="98"/>
+        <item x="105"/>
+        <item x="54"/>
+        <item x="51"/>
+        <item x="47"/>
+        <item x="31"/>
+        <item x="60"/>
+        <item x="23"/>
+        <item x="95"/>
+        <item x="61"/>
+        <item x="14"/>
+        <item x="87"/>
+        <item x="66"/>
+        <item x="27"/>
+        <item x="64"/>
+        <item x="67"/>
+        <item x="40"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="108"/>
+        <item x="16"/>
+        <item x="21"/>
+        <item x="103"/>
+        <item x="33"/>
+        <item x="78"/>
+        <item x="29"/>
+        <item x="56"/>
+        <item x="35"/>
+        <item x="37"/>
+        <item x="3"/>
+        <item x="72"/>
+        <item x="50"/>
+        <item x="2"/>
+        <item x="76"/>
+        <item x="88"/>
+        <item x="48"/>
+        <item x="30"/>
+        <item x="102"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -24572,7 +23136,13 @@
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="13">
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
     <i>
       <x v="6"/>
     </i>
@@ -24580,13 +23150,28 @@
       <x v="1"/>
     </i>
     <i>
-      <x v="7"/>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i>
       <x/>
     </i>
     <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
       <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -24608,10 +23193,10 @@
     <dataField name="Average of Addicted Score" fld="12" subtotal="average" baseField="6" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="518">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="517">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -24687,6 +23272,247 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A40:B47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="111">
+        <item x="104"/>
+        <item x="91"/>
+        <item x="86"/>
+        <item x="44"/>
+        <item x="79"/>
+        <item x="5"/>
+        <item x="22"/>
+        <item x="81"/>
+        <item x="57"/>
+        <item x="97"/>
+        <item x="0"/>
+        <item x="74"/>
+        <item x="20"/>
+        <item x="107"/>
+        <item x="52"/>
+        <item x="94"/>
+        <item x="7"/>
+        <item x="68"/>
+        <item x="4"/>
+        <item x="45"/>
+        <item x="15"/>
+        <item x="46"/>
+        <item x="53"/>
+        <item x="65"/>
+        <item x="82"/>
+        <item x="63"/>
+        <item x="18"/>
+        <item x="49"/>
+        <item x="38"/>
+        <item x="69"/>
+        <item x="59"/>
+        <item x="10"/>
+        <item x="80"/>
+        <item x="6"/>
+        <item x="43"/>
+        <item x="24"/>
+        <item x="34"/>
+        <item x="62"/>
+        <item x="58"/>
+        <item x="1"/>
+        <item x="32"/>
+        <item x="101"/>
+        <item x="25"/>
+        <item x="36"/>
+        <item x="12"/>
+        <item x="55"/>
+        <item x="8"/>
+        <item x="99"/>
+        <item x="75"/>
+        <item x="42"/>
+        <item x="93"/>
+        <item x="96"/>
+        <item x="77"/>
+        <item x="70"/>
+        <item x="100"/>
+        <item x="89"/>
+        <item x="71"/>
+        <item x="84"/>
+        <item x="28"/>
+        <item x="109"/>
+        <item x="83"/>
+        <item x="13"/>
+        <item x="73"/>
+        <item x="85"/>
+        <item x="90"/>
+        <item x="39"/>
+        <item x="106"/>
+        <item x="19"/>
+        <item x="26"/>
+        <item x="41"/>
+        <item x="92"/>
+        <item x="17"/>
+        <item x="98"/>
+        <item x="105"/>
+        <item x="54"/>
+        <item x="51"/>
+        <item x="47"/>
+        <item x="31"/>
+        <item x="60"/>
+        <item x="23"/>
+        <item x="95"/>
+        <item x="61"/>
+        <item x="14"/>
+        <item x="87"/>
+        <item x="66"/>
+        <item x="27"/>
+        <item x="64"/>
+        <item x="67"/>
+        <item x="40"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="108"/>
+        <item x="16"/>
+        <item x="21"/>
+        <item x="103"/>
+        <item x="33"/>
+        <item x="78"/>
+        <item x="29"/>
+        <item x="56"/>
+        <item x="35"/>
+        <item x="37"/>
+        <item x="3"/>
+        <item x="72"/>
+        <item x="50"/>
+        <item x="2"/>
+        <item x="76"/>
+        <item x="88"/>
+        <item x="48"/>
+        <item x="30"/>
+        <item x="102"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Addicted Score" fld="12" subtotal="average" baseField="9" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="6">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Country" sourceName="Country">
   <pivotTables>
@@ -24698,116 +23524,116 @@
   <data>
     <tabular pivotCacheId="1">
       <items count="110">
-        <i x="104"/>
-        <i x="91"/>
-        <i x="86"/>
-        <i x="44"/>
-        <i x="79"/>
-        <i x="5"/>
-        <i x="22"/>
-        <i x="81"/>
-        <i x="57"/>
-        <i x="97"/>
-        <i x="0"/>
-        <i x="74"/>
-        <i x="20"/>
-        <i x="107"/>
-        <i x="52"/>
-        <i x="94"/>
-        <i x="7"/>
-        <i x="68"/>
-        <i x="4"/>
-        <i x="45"/>
-        <i x="15"/>
-        <i x="46"/>
-        <i x="53"/>
-        <i x="65"/>
-        <i x="82"/>
-        <i x="63"/>
-        <i x="18"/>
-        <i x="49"/>
-        <i x="38"/>
-        <i x="69"/>
-        <i x="59"/>
-        <i x="10"/>
-        <i x="80"/>
-        <i x="6"/>
-        <i x="43"/>
-        <i x="24"/>
-        <i x="34"/>
-        <i x="62"/>
-        <i x="58"/>
-        <i x="1"/>
-        <i x="32"/>
-        <i x="101"/>
-        <i x="25"/>
-        <i x="36"/>
+        <i x="104" s="1"/>
+        <i x="91" s="1"/>
+        <i x="86" s="1"/>
+        <i x="44" s="1"/>
+        <i x="79" s="1"/>
+        <i x="5" s="1"/>
+        <i x="22" s="1"/>
+        <i x="81" s="1"/>
+        <i x="57" s="1"/>
+        <i x="97" s="1"/>
+        <i x="0" s="1"/>
+        <i x="74" s="1"/>
+        <i x="20" s="1"/>
+        <i x="107" s="1"/>
+        <i x="52" s="1"/>
+        <i x="94" s="1"/>
+        <i x="7" s="1"/>
+        <i x="68" s="1"/>
+        <i x="4" s="1"/>
+        <i x="45" s="1"/>
+        <i x="15" s="1"/>
+        <i x="46" s="1"/>
+        <i x="53" s="1"/>
+        <i x="65" s="1"/>
+        <i x="82" s="1"/>
+        <i x="63" s="1"/>
+        <i x="18" s="1"/>
+        <i x="49" s="1"/>
+        <i x="38" s="1"/>
+        <i x="69" s="1"/>
+        <i x="59" s="1"/>
+        <i x="10" s="1"/>
+        <i x="80" s="1"/>
+        <i x="6" s="1"/>
+        <i x="43" s="1"/>
+        <i x="24" s="1"/>
+        <i x="34" s="1"/>
+        <i x="62" s="1"/>
+        <i x="58" s="1"/>
+        <i x="1" s="1"/>
+        <i x="32" s="1"/>
+        <i x="101" s="1"/>
+        <i x="25" s="1"/>
+        <i x="36" s="1"/>
         <i x="12" s="1"/>
-        <i x="55"/>
-        <i x="8"/>
-        <i x="99"/>
-        <i x="75"/>
-        <i x="42"/>
-        <i x="93"/>
-        <i x="96"/>
-        <i x="77"/>
-        <i x="70"/>
-        <i x="100"/>
-        <i x="89"/>
-        <i x="71"/>
-        <i x="84"/>
-        <i x="28"/>
-        <i x="109"/>
-        <i x="83"/>
-        <i x="13"/>
-        <i x="73"/>
-        <i x="85"/>
-        <i x="90"/>
-        <i x="39"/>
-        <i x="106"/>
-        <i x="19"/>
-        <i x="26"/>
-        <i x="41"/>
-        <i x="92"/>
-        <i x="17"/>
-        <i x="98"/>
-        <i x="105"/>
-        <i x="54"/>
-        <i x="51"/>
-        <i x="47"/>
-        <i x="31"/>
-        <i x="60"/>
-        <i x="23"/>
-        <i x="95"/>
-        <i x="61"/>
-        <i x="14"/>
-        <i x="87"/>
-        <i x="66"/>
-        <i x="27"/>
-        <i x="64"/>
-        <i x="67"/>
-        <i x="40"/>
-        <i x="9"/>
-        <i x="11"/>
-        <i x="108"/>
-        <i x="16"/>
-        <i x="21"/>
-        <i x="103"/>
-        <i x="33"/>
-        <i x="78"/>
-        <i x="29"/>
-        <i x="56"/>
-        <i x="35"/>
-        <i x="37"/>
-        <i x="3"/>
-        <i x="72"/>
-        <i x="50"/>
-        <i x="2"/>
-        <i x="76"/>
-        <i x="88"/>
-        <i x="48"/>
-        <i x="30"/>
-        <i x="102"/>
+        <i x="55" s="1"/>
+        <i x="8" s="1"/>
+        <i x="99" s="1"/>
+        <i x="75" s="1"/>
+        <i x="42" s="1"/>
+        <i x="93" s="1"/>
+        <i x="96" s="1"/>
+        <i x="77" s="1"/>
+        <i x="70" s="1"/>
+        <i x="100" s="1"/>
+        <i x="89" s="1"/>
+        <i x="71" s="1"/>
+        <i x="84" s="1"/>
+        <i x="28" s="1"/>
+        <i x="109" s="1"/>
+        <i x="83" s="1"/>
+        <i x="13" s="1"/>
+        <i x="73" s="1"/>
+        <i x="85" s="1"/>
+        <i x="90" s="1"/>
+        <i x="39" s="1"/>
+        <i x="106" s="1"/>
+        <i x="19" s="1"/>
+        <i x="26" s="1"/>
+        <i x="41" s="1"/>
+        <i x="92" s="1"/>
+        <i x="17" s="1"/>
+        <i x="98" s="1"/>
+        <i x="105" s="1"/>
+        <i x="54" s="1"/>
+        <i x="51" s="1"/>
+        <i x="47" s="1"/>
+        <i x="31" s="1"/>
+        <i x="60" s="1"/>
+        <i x="23" s="1"/>
+        <i x="95" s="1"/>
+        <i x="61" s="1"/>
+        <i x="14" s="1"/>
+        <i x="87" s="1"/>
+        <i x="66" s="1"/>
+        <i x="27" s="1"/>
+        <i x="64" s="1"/>
+        <i x="67" s="1"/>
+        <i x="40" s="1"/>
+        <i x="9" s="1"/>
+        <i x="11" s="1"/>
+        <i x="108" s="1"/>
+        <i x="16" s="1"/>
+        <i x="21" s="1"/>
+        <i x="103" s="1"/>
+        <i x="33" s="1"/>
+        <i x="78" s="1"/>
+        <i x="29" s="1"/>
+        <i x="56" s="1"/>
+        <i x="35" s="1"/>
+        <i x="37" s="1"/>
+        <i x="3" s="1"/>
+        <i x="72" s="1"/>
+        <i x="50" s="1"/>
+        <i x="2" s="1"/>
+        <i x="76" s="1"/>
+        <i x="88" s="1"/>
+        <i x="48" s="1"/>
+        <i x="30" s="1"/>
+        <i x="102" s="1"/>
       </items>
     </tabular>
   </data>
@@ -24825,9 +23651,9 @@
   <data>
     <tabular pivotCacheId="1">
       <items count="3">
+        <i x="2" s="1"/>
         <i x="0" s="1"/>
         <i x="1" s="1"/>
-        <i x="2" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -24864,13 +23690,13 @@
   <data>
     <tabular pivotCacheId="1">
       <items count="7">
+        <i x="3" s="1"/>
+        <i x="0" s="1"/>
         <i x="2" s="1"/>
         <i x="4" s="1"/>
         <i x="1" s="1"/>
         <i x="5" s="1"/>
         <i x="6" s="1"/>
-        <i x="3" s="1" nd="1"/>
-        <i x="0" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -24898,7 +23724,7 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="Country" cache="Slicer_Country" caption="Country" startItem="39" rowHeight="241300"/>
+  <slicer name="Country" cache="Slicer_Country" caption="Country" rowHeight="241300"/>
   <slicer name="Relationship Status" cache="Slicer_Relationship_Status" caption="Relationship Status" rowHeight="241300"/>
   <slicer name="Affects Academic Performance" cache="Slicer_Affects_Academic_Performance" caption="Affects Academic Performance" rowHeight="241300"/>
   <slicer name="Age" cache="Slicer_Age" caption="Age" rowHeight="241300"/>
@@ -54169,7 +52995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M706"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A679" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
@@ -83139,7 +81965,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="511" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -83151,7 +81977,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
@@ -83179,95 +82005,127 @@
         <v>145</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4">
-        <v>6.8363636363636369</v>
+        <v>5.6344827586206909</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4">
-        <v>6.8</v>
+        <v>6.0173410404624281</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4">
-        <v>7.1624999999999996</v>
+        <v>6.4817351598173518</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>7.6314606741573048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="4">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="4">
+        <v>8.1171428571428574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="4">
-        <v>6.9761904761904763</v>
+      <c r="B8" s="4">
+        <v>6.8689361702127663</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>160</v>
+      <c r="B21" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>5</v>
-      </c>
-      <c r="B22" s="7">
-        <v>5.2818181818181822</v>
+        <v>4</v>
+      </c>
+      <c r="B22" s="5">
+        <v>6.8689655172413788</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>6</v>
-      </c>
-      <c r="B23" s="7">
-        <v>5.5</v>
+        <v>5</v>
+      </c>
+      <c r="B23" s="5">
+        <v>6.0138728323699429</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>7</v>
-      </c>
-      <c r="B24" s="7">
-        <v>4.8</v>
+        <v>6</v>
+      </c>
+      <c r="B24" s="5">
+        <v>5.1785388127853889</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
+        <v>7</v>
+      </c>
+      <c r="B25" s="5">
+        <v>4.1983146067415724</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>8</v>
       </c>
-      <c r="B25" s="7">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="5">
+        <v>3.2876190476190477</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>9</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="7">
-        <v>4.9904761904761896</v>
+      <c r="B28" s="5">
+        <v>4.916595744680853</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -83275,47 +82133,63 @@
         <v>145</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" s="3">
-        <v>7.5454545454545459</v>
+        <v>8.9655172413793096</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43" s="3">
-        <v>5</v>
+        <v>7.0502283105022832</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
+        <v>7</v>
+      </c>
+      <c r="B44" s="3">
+        <v>5.2528089887640448</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
         <v>8</v>
       </c>
-      <c r="B44" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="B45" s="3">
+        <v>3.9333333333333331</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>9</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B45" s="3">
-        <v>6.3809523809523814</v>
+      <c r="B47" s="3">
+        <v>6.4368794326241137</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -83323,76 +82197,153 @@
         <v>145</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="B57" s="4">
-        <v>5.1625000000000005</v>
+        <v>6.4759259259259272</v>
       </c>
       <c r="C57" s="4">
-        <v>7.25</v>
+        <v>7.4629629629629628</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B58" s="4">
-        <v>5.3</v>
+        <v>5.0923076923076938</v>
       </c>
       <c r="C58" s="4">
-        <v>7</v>
+        <v>7.4615384615384617</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B59" s="4">
-        <v>4.9499999999999993</v>
+        <v>5.3461038961038971</v>
       </c>
       <c r="C59" s="4">
-        <v>5</v>
+        <v>7.4285714285714288</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B60" s="4">
-        <v>4.75</v>
+        <v>4.8722891566265085</v>
       </c>
       <c r="C60" s="4">
-        <v>5</v>
+        <v>6.5542168674698793</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B61" s="4">
-        <v>2.8</v>
+        <v>4.0799999999999992</v>
       </c>
       <c r="C61" s="4">
-        <v>4</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62" s="4">
+        <v>4.96</v>
+      </c>
+      <c r="C62" s="4">
+        <v>6.0666666666666664</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" s="4">
+        <v>4.7250000000000005</v>
+      </c>
+      <c r="C63" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="4">
+        <v>4.5073170731707313</v>
+      </c>
+      <c r="C64" s="4">
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" s="4">
+        <v>4.87</v>
+      </c>
+      <c r="C65" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="4">
+        <v>4.25</v>
+      </c>
+      <c r="C66" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67" s="4">
+        <v>2.4476190476190474</v>
+      </c>
+      <c r="C67" s="4">
+        <v>3.8095238095238093</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="C68" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B62" s="4">
-        <v>4.9904761904761896</v>
-      </c>
-      <c r="C62" s="4">
-        <v>6.3809523809523814</v>
+      <c r="B69" s="4">
+        <v>4.916595744680853</v>
+      </c>
+      <c r="C69" s="4">
+        <v>6.4368794326241137</v>
       </c>
     </row>
   </sheetData>
@@ -83405,153 +82356,153 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
+      <c r="A1" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -83572,10 +82523,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -83585,7 +82536,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -83602,11 +82553,11 @@
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>164</v>
+      <c r="A3" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -83614,7 +82565,7 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -83622,7 +82573,7 @@
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -83630,7 +82581,7 @@
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -83638,7 +82589,7 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -83646,222 +82597,254 @@
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="A8" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -83874,44 +82857,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="94.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>